--- a/SubwayData/Excel/1호선 역간 거리 정보.xlsx
+++ b/SubwayData/Excel/1호선 역간 거리 정보.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isang-yun/WebstormProjects/get_time/SubwayData/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isang-yun/WebstormProjects/FreshRoute_BE/SubwayData/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B2878B1-034A-BB44-A464-52779A9AB336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80BE0DE-69D6-364E-AB7B-2EE5FAB390D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="500" windowWidth="27900" windowHeight="16940" xr2:uid="{E7B382FD-8A2E-0D46-B107-69E85C29C2C3}"/>
   </bookViews>
@@ -129,9 +129,6 @@
     <t>회기</t>
   </si>
   <si>
-    <t>청량리(서울시립대입구)</t>
-  </si>
-  <si>
     <t>제기동</t>
   </si>
   <si>
@@ -356,6 +353,10 @@
   </si>
   <si>
     <t>신창</t>
+  </si>
+  <si>
+    <t>청량리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -868,7 +869,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81961885-0FA1-2C48-B717-4089C1D2B322}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
@@ -1230,7 +1233,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="D26" s="8">
         <v>1.6</v>
@@ -1244,7 +1247,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D27" s="8">
         <v>1</v>
@@ -1258,7 +1261,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D28" s="8">
         <v>0.9</v>
@@ -1272,7 +1275,7 @@
         <v>4</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D29" s="8">
         <v>0.7</v>
@@ -1286,7 +1289,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D30" s="8">
         <v>0.6</v>
@@ -1300,7 +1303,7 @@
         <v>4</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D31" s="8">
         <v>0.8</v>
@@ -1314,7 +1317,7 @@
         <v>4</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D32" s="8">
         <v>0.9</v>
@@ -1328,7 +1331,7 @@
         <v>4</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D33" s="8">
         <v>0.8</v>
@@ -1342,7 +1345,7 @@
         <v>4</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D34" s="8">
         <v>1</v>
@@ -1356,7 +1359,7 @@
         <v>4</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D35" s="8">
         <v>1.1000000000000001</v>
@@ -1370,7 +1373,7 @@
         <v>4</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D36" s="8">
         <v>1.5</v>
@@ -1384,7 +1387,7 @@
         <v>4</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D37" s="8">
         <v>1.8</v>
@@ -1398,7 +1401,7 @@
         <v>4</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D38" s="8">
         <v>1.5</v>
@@ -1412,7 +1415,7 @@
         <v>4</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D39" s="8">
         <v>0.8</v>
@@ -1426,7 +1429,7 @@
         <v>4</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D40" s="8">
         <v>0.8</v>
@@ -1440,7 +1443,7 @@
         <v>4</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D41" s="8">
         <v>1.5</v>
@@ -1454,7 +1457,7 @@
         <v>4</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D42" s="8">
         <v>1.1000000000000001</v>
@@ -1468,7 +1471,7 @@
         <v>4</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D43" s="8">
         <v>2.4</v>
@@ -1482,7 +1485,7 @@
         <v>4</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D44" s="8">
         <v>1</v>
@@ -1496,7 +1499,7 @@
         <v>4</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D45" s="8">
         <v>1.3</v>
@@ -1510,7 +1513,7 @@
         <v>4</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D46" s="8">
         <v>1.9</v>
@@ -1524,7 +1527,7 @@
         <v>4</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D47" s="8">
         <v>1.3</v>
@@ -1538,7 +1541,7 @@
         <v>4</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D48" s="8">
         <v>1.5</v>
@@ -1552,7 +1555,7 @@
         <v>4</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D49" s="8">
         <v>1.1000000000000001</v>
@@ -1566,7 +1569,7 @@
         <v>4</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D50" s="8">
         <v>1.7</v>
@@ -1580,7 +1583,7 @@
         <v>4</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D51" s="8">
         <v>1</v>
@@ -1594,7 +1597,7 @@
         <v>4</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D52" s="8">
         <v>1.2</v>
@@ -1608,7 +1611,7 @@
         <v>4</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D53" s="8">
         <v>1.5</v>
@@ -1622,7 +1625,7 @@
         <v>4</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D54" s="8">
         <v>1.7</v>
@@ -1636,7 +1639,7 @@
         <v>4</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D55" s="8">
         <v>1.5</v>
@@ -1650,7 +1653,7 @@
         <v>4</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D56" s="8">
         <v>1.2</v>
@@ -1664,7 +1667,7 @@
         <v>4</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D57" s="8">
         <v>1.2</v>
@@ -1678,7 +1681,7 @@
         <v>4</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D58" s="8">
         <v>1</v>
@@ -1692,7 +1695,7 @@
         <v>4</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D59" s="8">
         <v>1</v>
@@ -1706,7 +1709,7 @@
         <v>4</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D60" s="8">
         <v>1.4</v>
@@ -1720,7 +1723,7 @@
         <v>4</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D61" s="8">
         <v>1.2</v>
@@ -1734,7 +1737,7 @@
         <v>4</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D62" s="8">
         <v>1.9</v>
@@ -1748,7 +1751,7 @@
         <v>4</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D63" s="8">
         <v>1.9</v>
@@ -1762,7 +1765,7 @@
         <v>4</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D64" s="8">
         <v>0</v>
@@ -1776,7 +1779,7 @@
         <v>4</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D65" s="8">
         <v>2</v>
@@ -1790,7 +1793,7 @@
         <v>4</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D66" s="8">
         <v>1.2</v>
@@ -1804,7 +1807,7 @@
         <v>4</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D67" s="8">
         <v>1.9</v>
@@ -1818,7 +1821,7 @@
         <v>4</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D68" s="8">
         <v>4.8</v>
@@ -1832,7 +1835,7 @@
         <v>4</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D69" s="8">
         <v>1.9</v>
@@ -1846,7 +1849,7 @@
         <v>4</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D70" s="8">
         <v>2.4</v>
@@ -1860,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D71" s="8">
         <v>2.2000000000000002</v>
@@ -1874,7 +1877,7 @@
         <v>4</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D72" s="8">
         <v>1.4</v>
@@ -1888,7 +1891,7 @@
         <v>4</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D73" s="8">
         <v>2.2000000000000002</v>
@@ -1902,7 +1905,7 @@
         <v>4</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D74" s="8">
         <v>1.6</v>
@@ -1916,7 +1919,7 @@
         <v>4</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D75" s="8">
         <v>2.6</v>
@@ -1930,7 +1933,7 @@
         <v>4</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D76" s="8">
         <v>2.9</v>
@@ -1944,7 +1947,7 @@
         <v>4</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D77" s="8">
         <v>2.6</v>
@@ -1958,7 +1961,7 @@
         <v>4</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D78" s="8">
         <v>2.1</v>
@@ -1972,7 +1975,7 @@
         <v>4</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D79" s="8">
         <v>2.9</v>
@@ -1986,7 +1989,7 @@
         <v>4</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D80" s="8">
         <v>4.3</v>
@@ -2000,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D81" s="8">
         <v>2.4</v>
@@ -2014,7 +2017,7 @@
         <v>4</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D82" s="8">
         <v>2.2000000000000002</v>
@@ -2028,7 +2031,7 @@
         <v>4</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D83" s="8">
         <v>2.7</v>
@@ -2042,7 +2045,7 @@
         <v>4</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D84" s="8">
         <v>2.7</v>
@@ -2056,7 +2059,7 @@
         <v>4</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D85" s="8">
         <v>4</v>
@@ -2070,7 +2073,7 @@
         <v>4</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D86" s="8">
         <v>3.8</v>
@@ -2084,7 +2087,7 @@
         <v>4</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D87" s="8">
         <v>2.2000000000000002</v>
@@ -2098,7 +2101,7 @@
         <v>4</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D88" s="8">
         <v>4.8</v>
@@ -2112,7 +2115,7 @@
         <v>4</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D89" s="8">
         <v>3.7</v>
@@ -2126,7 +2129,7 @@
         <v>4</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D90" s="8">
         <v>9.4</v>
@@ -2140,7 +2143,7 @@
         <v>4</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D91" s="8">
         <v>5.4</v>
@@ -2154,7 +2157,7 @@
         <v>4</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D92" s="8">
         <v>3.8</v>
@@ -2168,7 +2171,7 @@
         <v>4</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D93" s="8">
         <v>3.8</v>
@@ -2182,7 +2185,7 @@
         <v>4</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D94" s="8">
         <v>1.3</v>
@@ -2196,7 +2199,7 @@
         <v>4</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D95" s="8">
         <v>1.6</v>
@@ -2210,7 +2213,7 @@
         <v>4</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D96" s="8">
         <v>1.6</v>
@@ -2224,7 +2227,7 @@
         <v>4</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D97" s="8">
         <v>1.8</v>
@@ -2238,7 +2241,7 @@
         <v>4</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D98" s="8">
         <v>3.1</v>
@@ -2252,7 +2255,7 @@
         <v>4</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D99" s="8">
         <v>4.9000000000000004</v>
@@ -2266,7 +2269,7 @@
         <v>4</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D100" s="8">
         <v>5.0999999999999996</v>
@@ -2280,7 +2283,7 @@
         <v>4</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D101" s="10">
         <v>5.0999999999999996</v>
